--- a/teaching/traditional_assets/database/data/tunisia/tunisia_oil_gas_distribution.xlsx
+++ b/teaching/traditional_assets/database/data/tunisia/tunisia_oil_gas_distribution.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0898</v>
+        <v>0.0509</v>
       </c>
       <c r="E2">
-        <v>0.119</v>
+        <v>0.141</v>
       </c>
       <c r="G2">
-        <v>0.5912162162162162</v>
+        <v>0.6349809885931559</v>
       </c>
       <c r="H2">
-        <v>0.5912162162162162</v>
+        <v>0.6349809885931559</v>
       </c>
       <c r="I2">
-        <v>0.4290540540540541</v>
+        <v>0.4638783269961977</v>
       </c>
       <c r="J2">
-        <v>0.2684455846220553</v>
+        <v>0.2935938778456948</v>
       </c>
       <c r="K2">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="L2">
-        <v>0.3952702702702702</v>
+        <v>0.4752851711026616</v>
       </c>
       <c r="M2">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="N2">
-        <v>0.07740112994350283</v>
+        <v>0.08397790055248618</v>
       </c>
       <c r="O2">
-        <v>0.5854700854700855</v>
+        <v>0.608</v>
       </c>
       <c r="P2">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="Q2">
-        <v>0.07740112994350283</v>
+        <v>0.08397790055248618</v>
       </c>
       <c r="R2">
-        <v>0.5854700854700855</v>
+        <v>0.608</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,31 +639,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.475</v>
+        <v>0.305</v>
       </c>
       <c r="V2">
-        <v>0.02683615819209039</v>
+        <v>0.01685082872928177</v>
       </c>
       <c r="W2">
-        <v>0.156</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="X2">
-        <v>0.1070358865792036</v>
+        <v>0.07422547200288908</v>
       </c>
       <c r="Y2">
-        <v>0.04896411342079639</v>
+        <v>0.09818832110055921</v>
       </c>
       <c r="Z2">
-        <v>0.422525158803797</v>
+        <v>0.3750445632798574</v>
       </c>
       <c r="AA2">
-        <v>0.113425013272612</v>
+        <v>0.1101107876982784</v>
       </c>
       <c r="AB2">
-        <v>0.1070358865792036</v>
+        <v>0.07422547200288908</v>
       </c>
       <c r="AC2">
-        <v>0.006389126693408409</v>
+        <v>0.03588531569538932</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.475</v>
+        <v>-0.305</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -684,25 +684,25 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.02757619738751814</v>
+        <v>-0.01713964596796853</v>
       </c>
       <c r="AK2">
-        <v>-0.0338680926916221</v>
+        <v>-0.02020536601523683</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-1.18</v>
+        <v>-1.47</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.1503164556962025</v>
+        <v>-0.1013289036544851</v>
       </c>
       <c r="AQ2">
-        <v>-2.152542372881356</v>
+        <v>-1.659863945578231</v>
       </c>
     </row>
     <row r="3">
@@ -722,46 +722,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0898</v>
+        <v>0.0509</v>
       </c>
       <c r="E3">
-        <v>0.119</v>
+        <v>0.141</v>
       </c>
       <c r="G3">
-        <v>0.5912162162162162</v>
+        <v>0.6349809885931559</v>
       </c>
       <c r="H3">
-        <v>0.5912162162162162</v>
+        <v>0.6349809885931559</v>
       </c>
       <c r="I3">
-        <v>0.4290540540540541</v>
+        <v>0.4638783269961977</v>
       </c>
       <c r="J3">
-        <v>0.2684455846220553</v>
+        <v>0.2935938778456948</v>
       </c>
       <c r="K3">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="L3">
-        <v>0.3952702702702702</v>
+        <v>0.4752851711026616</v>
       </c>
       <c r="M3">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="N3">
-        <v>0.07740112994350283</v>
+        <v>0.08397790055248618</v>
       </c>
       <c r="O3">
-        <v>0.5854700854700855</v>
+        <v>0.608</v>
       </c>
       <c r="P3">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="Q3">
-        <v>0.07740112994350283</v>
+        <v>0.08397790055248618</v>
       </c>
       <c r="R3">
-        <v>0.5854700854700855</v>
+        <v>0.608</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,31 +770,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.475</v>
+        <v>0.305</v>
       </c>
       <c r="V3">
-        <v>0.02683615819209039</v>
+        <v>0.01685082872928177</v>
       </c>
       <c r="W3">
-        <v>0.156</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="X3">
-        <v>0.1070358865792036</v>
+        <v>0.07422547200288908</v>
       </c>
       <c r="Y3">
-        <v>0.04896411342079639</v>
+        <v>0.09818832110055921</v>
       </c>
       <c r="Z3">
-        <v>0.422525158803797</v>
+        <v>0.3750445632798574</v>
       </c>
       <c r="AA3">
-        <v>0.113425013272612</v>
+        <v>0.1101107876982784</v>
       </c>
       <c r="AB3">
-        <v>0.1070358865792036</v>
+        <v>0.07422547200288908</v>
       </c>
       <c r="AC3">
-        <v>0.006389126693408409</v>
+        <v>0.03588531569538932</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.475</v>
+        <v>-0.305</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -815,25 +815,25 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.02757619738751814</v>
+        <v>-0.01713964596796853</v>
       </c>
       <c r="AK3">
-        <v>-0.0338680926916221</v>
+        <v>-0.02020536601523683</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-1.18</v>
+        <v>-1.47</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-0.1503164556962025</v>
+        <v>-0.1013289036544851</v>
       </c>
       <c r="AQ3">
-        <v>-2.152542372881356</v>
+        <v>-1.659863945578231</v>
       </c>
     </row>
   </sheetData>
